--- a/biology/Zoologie/Colopea_pusilla/Colopea_pusilla.xlsx
+++ b/biology/Zoologie/Colopea_pusilla/Colopea_pusilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colopea pusilla est une espèce d'araignées aranéomorphes de la famille des Stenochilidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colopea pusilla est une espèce d'araignées aranéomorphes de la famille des Stenochilidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Philippines[1]. Elle se rencontre à Luçon et à Mindoro[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre à Luçon et à Mindoro.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle syntype mesure 4 mm[3].
-Le mâle décrit par Lehtinen en 1982 mesure 3,8 mm et la femelle 4,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle syntype mesure 4 mm.
+Le mâle décrit par Lehtinen en 1982 mesure 3,8 mm et la femelle 4,3 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Stenochilus pusillus par Simon en 1893. Elle est placée dans le genre Colopea par Simon en 1893[4].
-Metronax laetus, placée en synonymie par Platnick et Shadab en 1974[5], a été relevée de synonymie par Lehtinen en 1982[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Stenochilus pusillus par Simon en 1893. Elle est placée dans le genre Colopea par Simon en 1893.
+Metronax laetus, placée en synonymie par Platnick et Shadab en 1974, a été relevée de synonymie par Lehtinen en 1982.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1893 : « Arachnides. Voyage de M. E. Simon aux îles Philippines (mars et avril 1890). 6e Mémoire. » Annales de la Société Entomologique de France, vol. 62, p. 65-80 (texte intégral).</t>
         </is>
